--- a/documentation/avancement/taches.xlsx
+++ b/documentation/avancement/taches.xlsx
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,10 +669,10 @@
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.8</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>22</v>

--- a/documentation/avancement/taches.xlsx
+++ b/documentation/avancement/taches.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t>TACHES</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>undefined</t>
+  </si>
+  <si>
+    <t>Remettre le code aux normes</t>
+  </si>
+  <si>
+    <t>Respecter les règles de nommage d'après le document</t>
   </si>
 </sst>
 </file>
@@ -550,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,7 +622,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="9">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>22</v>
@@ -654,7 +660,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="9">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>24</v>
@@ -679,34 +685,34 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
+      <c r="A7" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>14</v>
@@ -714,17 +720,19 @@
       <c r="E8" s="8">
         <v>0</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>25</v>
+      <c r="F8" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>14</v>
@@ -732,22 +740,20 @@
       <c r="E9" s="8">
         <v>0</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>22</v>
+      <c r="F9" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E10" s="8">
         <v>0</v>
@@ -758,11 +764,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>20</v>
@@ -770,20 +778,20 @@
       <c r="E11" s="8">
         <v>0</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>25</v>
+      <c r="F11" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E12" s="8">
         <v>0</v>
@@ -794,11 +802,11 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>14</v>
@@ -812,16 +820,14 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E14" s="8">
         <v>0</v>
@@ -832,13 +838,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>20</v>
@@ -851,22 +857,42 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="8">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6" t="s">
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>25</v>
       </c>
     </row>

--- a/documentation/avancement/taches.xlsx
+++ b/documentation/avancement/taches.xlsx
@@ -559,7 +559,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,7 +622,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="9">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>22</v>
@@ -698,7 +698,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="9">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>22</v>

--- a/documentation/avancement/taches.xlsx
+++ b/documentation/avancement/taches.xlsx
@@ -559,7 +559,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,7 +622,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>22</v>
@@ -698,7 +698,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="9">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>22</v>
@@ -717,8 +717,8 @@
       <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="8">
-        <v>0</v>
+      <c r="E8" s="9">
+        <v>0.25</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>22</v>

--- a/documentation/avancement/taches.xlsx
+++ b/documentation/avancement/taches.xlsx
@@ -559,7 +559,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,7 +622,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="9">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>22</v>

--- a/documentation/avancement/taches.xlsx
+++ b/documentation/avancement/taches.xlsx
@@ -622,7 +622,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="9">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>22</v>

--- a/documentation/avancement/taches.xlsx
+++ b/documentation/avancement/taches.xlsx
@@ -240,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -253,6 +253,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -559,7 +562,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,25 +663,25 @@
         <v>6</v>
       </c>
       <c r="E5" s="9">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="9">
-        <v>0.8</v>
+      <c r="E6" s="10">
+        <v>1</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>22</v>
@@ -698,7 +701,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="9">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>22</v>

--- a/documentation/avancement/taches.xlsx
+++ b/documentation/avancement/taches.xlsx
@@ -181,7 +181,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,6 +209,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -255,7 +261,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -562,7 +569,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +650,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="9">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>23</v>
@@ -670,18 +677,18 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="10">
-        <v>1</v>
+      <c r="E6" s="11">
+        <v>0.95</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>22</v>

--- a/documentation/avancement/taches.xlsx
+++ b/documentation/avancement/taches.xlsx
@@ -569,7 +569,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +632,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="9">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>22</v>
@@ -650,7 +650,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="9">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>23</v>
@@ -728,7 +728,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="9">
-        <v>0.25</v>
+        <v>0.7</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>22</v>

--- a/documentation/avancement/taches.xlsx
+++ b/documentation/avancement/taches.xlsx
@@ -569,7 +569,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,8 +750,8 @@
       <c r="E9" s="8">
         <v>0</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>25</v>
+      <c r="F9" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">

--- a/documentation/avancement/taches.xlsx
+++ b/documentation/avancement/taches.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>TACHES</t>
   </si>
@@ -160,6 +160,15 @@
   </si>
   <si>
     <t>Respecter les règles de nommage d'après le document</t>
+  </si>
+  <si>
+    <t>Relecture du code</t>
+  </si>
+  <si>
+    <t>Corriger les optimisations, les normes etc….</t>
+  </si>
+  <si>
+    <t>Fini</t>
   </si>
 </sst>
 </file>
@@ -566,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,10 +638,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="E3" s="9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>22</v>
@@ -647,10 +656,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="E4" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>23</v>
@@ -670,7 +679,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="9">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>24</v>
@@ -684,11 +693,11 @@
       <c r="C6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>6</v>
+      <c r="D6" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="E6" s="11">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>22</v>
@@ -705,10 +714,10 @@
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E7" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>22</v>
@@ -728,7 +737,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="9">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>22</v>
@@ -736,18 +745,18 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="9">
         <v>0</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -756,17 +765,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.1</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>22</v>
@@ -774,16 +785,14 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="3" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E11" s="8">
         <v>0</v>
@@ -794,11 +803,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="C12" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>20</v>
@@ -806,20 +817,20 @@
       <c r="E12" s="8">
         <v>0</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>25</v>
+      <c r="F12" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E13" s="8">
         <v>0</v>
@@ -830,11 +841,11 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>14</v>
@@ -848,16 +859,14 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E15" s="8">
         <v>0</v>
@@ -868,13 +877,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>20</v>
@@ -887,22 +896,42 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>39</v>
+      <c r="A17" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="8">
         <v>0</v>
       </c>
       <c r="F17" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>25</v>
       </c>
     </row>

--- a/documentation/avancement/taches.xlsx
+++ b/documentation/avancement/taches.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
   <si>
     <t>TACHES</t>
   </si>
@@ -87,9 +87,6 @@
     <t>normal</t>
   </si>
   <si>
-    <t xml:space="preserve">normal </t>
-  </si>
-  <si>
     <t xml:space="preserve">essentiel </t>
   </si>
   <si>
@@ -169,22 +166,22 @@
   </si>
   <si>
     <t>Fini</t>
+  </si>
+  <si>
+    <t>Mise en place logique du jeu</t>
+  </si>
+  <si>
+    <t>Tous ce qui concerne collision, mort du perso etc..</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -255,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -263,7 +260,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -575,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,7 +601,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>21</v>
@@ -622,8 +618,8 @@
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>45</v>
+      <c r="E2" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
@@ -638,12 +634,12 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="9">
+        <v>49</v>
+      </c>
+      <c r="E3" s="8">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -656,13 +652,13 @@
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="9">
+        <v>49</v>
+      </c>
+      <c r="E4" s="8">
         <v>1</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>23</v>
+      <c r="F4" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -670,7 +666,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
@@ -678,48 +674,48 @@
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="9">
-        <v>0.6</v>
+      <c r="E5" s="8">
+        <v>0.65</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10" t="s">
+      <c r="A6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="11">
+        <v>49</v>
+      </c>
+      <c r="E6" s="10">
         <v>1</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="9">
+        <v>49</v>
+      </c>
+      <c r="E7" s="8">
         <v>1</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -736,19 +732,19 @@
       <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>0.9</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>13</v>
@@ -756,7 +752,7 @@
       <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>0</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -765,19 +761,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="9">
-        <v>0.1</v>
+      <c r="E10" s="8">
+        <v>0.05</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>22</v>
@@ -785,17 +781,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="C11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="E11" s="8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>22</v>
@@ -803,18 +801,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="8">
+        <v>14</v>
+      </c>
+      <c r="E12" s="7">
         <v>0</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -823,116 +819,136 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C13" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>0</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>25</v>
+      <c r="F13" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="8">
+        <v>31</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="7">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>0</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="8">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="7">
         <v>0</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>0</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E19" s="7">
         <v>0</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>25</v>
+      <c r="F19" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
